--- a/Result.xlsx
+++ b/Result.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="159" uniqueCount="70">
   <si>
     <t>Var1</t>
   </si>
@@ -124,6 +124,105 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -169,7 +268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -234,90 +333,178 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="159" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="594" uniqueCount="182">
   <si>
     <t>Var1</t>
   </si>
@@ -223,6 +223,342 @@
   </si>
   <si>
     <t>25</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>150</t>
   </si>
 </sst>
 </file>
@@ -268,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -333,120 +669,120 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>66</v>
@@ -454,57 +790,1454 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C56" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C78" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" s="0" t="s">
         <v>69</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="73095" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="73683" uniqueCount="192">
   <si>
     <t>Var1</t>
   </si>
@@ -640,9 +640,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="true"/>
-    <col min="2" max="2" width="9.42578125" customWidth="true"/>
-    <col min="3" max="3" width="8.5703125" customWidth="true"/>
+    <col min="1" max="1" width="9.6640625" customWidth="true"/>
+    <col min="2" max="2" width="8.5546875" customWidth="true"/>
+    <col min="3" max="3" width="7.5546875" customWidth="true"/>
     <col min="4" max="4" width="5.140625" customWidth="true"/>
     <col min="5" max="5" width="5.140625" customWidth="true"/>
     <col min="6" max="6" width="5.140625" customWidth="true"/>
@@ -699,1058 +699,1058 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>96</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>172</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>188</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="C75" s="0" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>188</v>
+        <v>51</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99">
